--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_75_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_75_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.0005109113202924, 3.5759346560911585]</t>
+          <t>[3.004577713496313, 3.571867853915138]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.04979761382549164, 0.41102860741986724]</t>
+          <t>[0.05012458533954067, 0.4107016359058182]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.01357166897263085</v>
+        <v>0.01341384730196471</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01357166897263085</v>
+        <v>0.01341384730196471</v>
       </c>
       <c r="W2" t="n">
         <v>18.27497497497542</v>
